--- a/outputs-HGR-r202/test-g__Schaedlerella_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Schaedlerella_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Row</t>
   </si>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,14 +116,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,126 +147,126 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.83596356818386952</v>
+        <v>0.77498829447818951</v>
       </c>
       <c r="C2">
-        <v>0.16403643181613053</v>
+        <v>0.22501170552181046</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.77498829447818951</v>
+        <v>0.78030460928780898</v>
       </c>
       <c r="C3">
-        <v>0.22501170552181046</v>
+        <v>0.21969539071219102</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.78030460928780898</v>
+        <v>0.94248188193282922</v>
       </c>
       <c r="C4">
-        <v>0.21969539071219102</v>
+        <v>0.057518118067170804</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.94248188193282922</v>
+        <v>0.88761010929146367</v>
       </c>
       <c r="C5">
-        <v>0.057518118067170804</v>
+        <v>0.11238989070853636</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.77222143101674634</v>
+        <v>0.94663403694866477</v>
       </c>
       <c r="C6">
-        <v>0.22777856898325352</v>
+        <v>0.053365963051335265</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.88761010929146367</v>
+        <v>0.82604034954981864</v>
       </c>
       <c r="C7">
-        <v>0.11238989070853636</v>
+        <v>0.17395965045018133</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.94663403694866477</v>
+        <v>0.94911505000134189</v>
       </c>
       <c r="C8">
-        <v>0.053365963051335265</v>
+        <v>0.050884949998658113</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.76392587232296205</v>
+        <v>0.95047059434184333</v>
       </c>
       <c r="C9">
-        <v>0.236074127677038</v>
+        <v>0.049529405658156687</v>
       </c>
       <c r="D9">
         <v>1</v>
